--- a/ExcelF&F_Seccion7_Fecha_Hora.xlsx
+++ b/ExcelF&F_Seccion7_Fecha_Hora.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Daniel\Desktop\GitHub\Udemy-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA70F738-6866-41E5-8873-CB85C18EF4F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FF71C2-46F8-4E90-AB1C-F1EEB6BC5E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Funciones Fecha_Hora" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Fecha actual:</t>
   </si>
@@ -114,6 +114,12 @@
   <si>
     <t>Dias del mes:</t>
   </si>
+  <si>
+    <t>Alternativa</t>
+  </si>
+  <si>
+    <t>Mes</t>
+  </si>
 </sst>
 </file>
 
@@ -123,7 +129,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +198,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -274,7 +287,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -350,12 +363,44 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -389,6 +434,90 @@
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Administrados de Presupuesto'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% del mes:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Administrados de Presupuesto'!$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.4838709677419355</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7D18-4B27-8053-D102E0DC1C0E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Administrados de Presupuesto'!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% del presupuesto:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Administrados de Presupuesto'!$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.64119999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7D18-4B27-8053-D102E0DC1C0E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -492,7 +621,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.29419684397641005"/>
           <c:y val="0.89042075833812828"/>
-          <c:w val="0.21484218804779365"/>
+          <c:w val="0.24602562179727536"/>
           <c:h val="0.10344897494217277"/>
         </c:manualLayout>
       </c:layout>
@@ -1470,8 +1599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1482,7 +1611,7 @@
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.28515625" customWidth="1"/>
     <col min="9" max="9" width="15.5703125" customWidth="1"/>
   </cols>
@@ -1493,7 +1622,7 @@
       </c>
       <c r="C2" s="19">
         <f ca="1">TODAY()</f>
-        <v>45084</v>
+        <v>45085</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1502,16 +1631,21 @@
       </c>
       <c r="C3" s="20">
         <f ca="1">NOW()</f>
-        <v>45084.794254745371</v>
+        <v>45085.754832060185</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="19"/>
+      <c r="F3" s="19">
+        <v>45585</v>
+      </c>
     </row>
     <row r="4" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="14"/>
       <c r="F4" s="2"/>
+      <c r="G4" s="27" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
@@ -1524,7 +1658,14 @@
       <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="16"/>
+      <c r="F5" s="16">
+        <f ca="1">F3-C2</f>
+        <v>500</v>
+      </c>
+      <c r="G5" s="27">
+        <f ca="1">DATEDIF(C2,F3,"D")</f>
+        <v>500</v>
+      </c>
     </row>
     <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
@@ -1537,7 +1678,10 @@
       <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="17"/>
+      <c r="F6" s="17">
+        <f ca="1">NETWORKDAYS(C2,F3)</f>
+        <v>357</v>
+      </c>
     </row>
     <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
@@ -1545,12 +1689,15 @@
       </c>
       <c r="C7" s="17">
         <f ca="1">DAY(C3)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="15"/>
+      <c r="F7" s="15">
+        <f>WEEKDAY(F3,1)</f>
+        <v>1</v>
+      </c>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1559,7 +1706,7 @@
       </c>
       <c r="C8" s="17">
         <f ca="1">HOUR(C3)</f>
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1568,25 +1715,31 @@
       </c>
       <c r="C9" s="17">
         <f ca="1">MINUTE(C3)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="17"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F9" s="17">
+        <f ca="1">DATEDIF($C$2,$F$3,"M")</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="15">
         <f ca="1">SECOND(C3)</f>
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="15"/>
+      <c r="F10" s="17">
+        <f ca="1">DATEDIF($C$2,$F$3,"Y")</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="21"/>
@@ -1625,7 +1778,7 @@
       </c>
       <c r="C16" s="22">
         <f ca="1">YEARFRAC(C14,C2,1)</f>
-        <v>0.43013698630136987</v>
+        <v>0.43287671232876712</v>
       </c>
     </row>
   </sheetData>
@@ -1639,8 +1792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:I35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1651,6 +1804,7 @@
     <col min="4" max="4" width="6.28515625" customWidth="1"/>
     <col min="5" max="5" width="21.85546875" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1658,23 +1812,37 @@
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11"/>
+      <c r="C2" s="11">
+        <f>MAX('Datos de Muestra'!B:B)</f>
+        <v>42140</v>
+      </c>
       <c r="E2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="H2" s="24"/>
+      <c r="F2" s="13">
+        <v>2500</v>
+      </c>
+      <c r="H2" s="24">
+        <f>F4-C4</f>
+        <v>0.15732903225806449</v>
+      </c>
       <c r="I2" s="25"/>
     </row>
     <row r="3" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="9"/>
+      <c r="C3" s="9">
+        <f>EOMONTH(C2,-1)+1</f>
+        <v>42125</v>
+      </c>
       <c r="E3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="10"/>
+      <c r="F3" s="10">
+        <f>SUMIF('Datos de Muestra'!A:A,5,'Datos de Muestra'!C:C)</f>
+        <v>1603</v>
+      </c>
       <c r="H3" s="25"/>
       <c r="I3" s="25"/>
     </row>
@@ -1682,12 +1850,21 @@
       <c r="B4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="12"/>
+      <c r="C4" s="12">
+        <f>(C2-C3)/VLOOKUP(MONTH(C2),B24:C35,2,0)</f>
+        <v>0.4838709677419355</v>
+      </c>
       <c r="E4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="H4" s="26"/>
+      <c r="F4" s="12">
+        <f>F3/F2</f>
+        <v>0.64119999999999999</v>
+      </c>
+      <c r="H4" s="26" t="str">
+        <f>IF(H2&gt;0,"Gasto sobre presupuesto","Gasto bajo presupuesto")</f>
+        <v>Gasto sobre presupuesto</v>
+      </c>
       <c r="I4" s="26"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
@@ -1796,6 +1973,14 @@
     <mergeCell ref="H2:I3"/>
     <mergeCell ref="H4:I4"/>
   </mergeCells>
+  <conditionalFormatting sqref="H2:I3">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1806,1111 +1991,1656 @@
   <sheetPr>
     <tabColor theme="0" tint="-0.14999847407452621"/>
   </sheetPr>
-  <dimension ref="A1:B137"/>
+  <dimension ref="A1:C137"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>MONTH(B2)</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
         <v>42005</v>
       </c>
-      <c r="B2" s="4">
+      <c r="C2" s="4">
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f t="shared" ref="A3:A66" si="0">MONTH(B3)</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
         <v>42006</v>
       </c>
-      <c r="B3" s="4">
+      <c r="C3" s="4">
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
         <v>42007</v>
       </c>
-      <c r="B4" s="4">
+      <c r="C4" s="4">
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
         <v>42008</v>
       </c>
-      <c r="B5" s="4">
+      <c r="C5" s="4">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
         <v>42009</v>
       </c>
-      <c r="B6" s="4">
+      <c r="C6" s="4">
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B7" s="3">
         <v>42010</v>
       </c>
-      <c r="B7" s="4">
+      <c r="C7" s="4">
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B8" s="3">
         <v>42011</v>
       </c>
-      <c r="B8" s="4">
+      <c r="C8" s="4">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B9" s="3">
         <v>42012</v>
       </c>
-      <c r="B9" s="4">
+      <c r="C9" s="4">
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B10" s="3">
         <v>42013</v>
       </c>
-      <c r="B10" s="4">
+      <c r="C10" s="4">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B11" s="3">
         <v>42014</v>
       </c>
-      <c r="B11" s="4">
+      <c r="C11" s="4">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B12" s="3">
         <v>42015</v>
       </c>
-      <c r="B12" s="4">
+      <c r="C12" s="4">
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B13" s="3">
         <v>42016</v>
       </c>
-      <c r="B13" s="4">
+      <c r="C13" s="4">
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B14" s="3">
         <v>42017</v>
       </c>
-      <c r="B14" s="4">
+      <c r="C14" s="4">
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B15" s="3">
         <v>42018</v>
       </c>
-      <c r="B15" s="4">
+      <c r="C15" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B16" s="3">
         <v>42019</v>
       </c>
-      <c r="B16" s="4">
+      <c r="C16" s="4">
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B17" s="3">
         <v>42020</v>
       </c>
-      <c r="B17" s="4">
+      <c r="C17" s="4">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B18" s="3">
         <v>42021</v>
       </c>
-      <c r="B18" s="4">
+      <c r="C18" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B19" s="3">
         <v>42022</v>
       </c>
-      <c r="B19" s="4">
+      <c r="C19" s="4">
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B20" s="3">
         <v>42023</v>
       </c>
-      <c r="B20" s="4">
+      <c r="C20" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B21" s="3">
         <v>42024</v>
       </c>
-      <c r="B21" s="4">
+      <c r="C21" s="4">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B22" s="3">
         <v>42025</v>
       </c>
-      <c r="B22" s="4">
+      <c r="C22" s="4">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
         <v>42026</v>
       </c>
-      <c r="B23" s="4">
+      <c r="C23" s="4">
         <v>196</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B24" s="3">
         <v>42027</v>
       </c>
-      <c r="B24" s="4">
+      <c r="C24" s="4">
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B25" s="3">
         <v>42028</v>
       </c>
-      <c r="B25" s="4">
+      <c r="C25" s="4">
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B26" s="3">
         <v>42029</v>
       </c>
-      <c r="B26" s="4">
+      <c r="C26" s="4">
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B27" s="3">
         <v>42030</v>
       </c>
-      <c r="B27" s="4">
+      <c r="C27" s="4">
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B28" s="3">
         <v>42031</v>
       </c>
-      <c r="B28" s="4">
+      <c r="C28" s="4">
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B29" s="3">
         <v>42032</v>
       </c>
-      <c r="B29" s="4">
+      <c r="C29" s="4">
         <v>157</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B30" s="3">
         <v>42033</v>
       </c>
-      <c r="B30" s="4">
+      <c r="C30" s="4">
         <v>195</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B31" s="3">
         <v>42034</v>
       </c>
-      <c r="B31" s="4">
+      <c r="C31" s="4">
         <v>163</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B32" s="3">
         <v>42035</v>
       </c>
-      <c r="B32" s="4">
+      <c r="C32" s="4">
         <v>143</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B33" s="3">
         <v>42036</v>
       </c>
-      <c r="B33" s="4">
+      <c r="C33" s="4">
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B34" s="3">
         <v>42037</v>
       </c>
-      <c r="B34" s="4">
+      <c r="C34" s="4">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B35" s="3">
         <v>42038</v>
       </c>
-      <c r="B35" s="4">
+      <c r="C35" s="4">
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B36" s="3">
         <v>42039</v>
       </c>
-      <c r="B36" s="4">
+      <c r="C36" s="4">
         <v>150</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B37" s="3">
         <v>42040</v>
       </c>
-      <c r="B37" s="4">
+      <c r="C37" s="4">
         <v>173</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B38" s="3">
         <v>42041</v>
       </c>
-      <c r="B38" s="4">
+      <c r="C38" s="4">
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B39" s="3">
         <v>42042</v>
       </c>
-      <c r="B39" s="4">
+      <c r="C39" s="4">
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B40" s="3">
         <v>42043</v>
       </c>
-      <c r="B40" s="4">
+      <c r="C40" s="4">
         <v>177</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B41" s="3">
         <v>42044</v>
       </c>
-      <c r="B41" s="4">
+      <c r="C41" s="4">
         <v>144</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B42" s="3">
         <v>42045</v>
       </c>
-      <c r="B42" s="4">
+      <c r="C42" s="4">
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B43" s="3">
         <v>42046</v>
       </c>
-      <c r="B43" s="4">
+      <c r="C43" s="4">
         <v>171</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B44" s="3">
         <v>42047</v>
       </c>
-      <c r="B44" s="4">
+      <c r="C44" s="4">
         <v>194</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B45" s="3">
         <v>42048</v>
       </c>
-      <c r="B45" s="4">
+      <c r="C45" s="4">
         <v>164</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B46" s="3">
         <v>42049</v>
       </c>
-      <c r="B46" s="4">
+      <c r="C46" s="4">
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B47" s="3">
         <v>42050</v>
       </c>
-      <c r="B47" s="4">
+      <c r="C47" s="4">
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B48" s="3">
         <v>42051</v>
       </c>
-      <c r="B48" s="4">
+      <c r="C48" s="4">
         <v>173</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B49" s="3">
         <v>42052</v>
       </c>
-      <c r="B49" s="4">
+      <c r="C49" s="4">
         <v>93</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B50" s="3">
         <v>42053</v>
       </c>
-      <c r="B50" s="4">
+      <c r="C50" s="4">
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B51" s="3">
         <v>42054</v>
       </c>
-      <c r="B51" s="4">
+      <c r="C51" s="4">
         <v>159</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B52" s="3">
         <v>42055</v>
       </c>
-      <c r="B52" s="4">
+      <c r="C52" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B53" s="3">
         <v>42056</v>
       </c>
-      <c r="B53" s="4">
+      <c r="C53" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B54" s="3">
         <v>42057</v>
       </c>
-      <c r="B54" s="4">
+      <c r="C54" s="4">
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B55" s="3">
         <v>42058</v>
       </c>
-      <c r="B55" s="4">
+      <c r="C55" s="4">
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B56" s="3">
         <v>42059</v>
       </c>
-      <c r="B56" s="4">
+      <c r="C56" s="4">
         <v>156</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B57" s="3">
         <v>42060</v>
       </c>
-      <c r="B57" s="4">
+      <c r="C57" s="4">
         <v>142</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B58" s="3">
         <v>42061</v>
       </c>
-      <c r="B58" s="4">
+      <c r="C58" s="4">
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B59" s="3">
         <v>42062</v>
       </c>
-      <c r="B59" s="4">
+      <c r="C59" s="4">
         <v>120</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B60" s="3">
         <v>42063</v>
       </c>
-      <c r="B60" s="4">
+      <c r="C60" s="4">
         <v>167</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B61" s="3">
         <v>42064</v>
       </c>
-      <c r="B61" s="4">
+      <c r="C61" s="4">
         <v>177</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B62" s="3">
         <v>42065</v>
       </c>
-      <c r="B62" s="4">
+      <c r="C62" s="4">
         <v>178</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B63" s="3">
         <v>42066</v>
       </c>
-      <c r="B63" s="4">
+      <c r="C63" s="4">
         <v>105</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B64" s="3">
         <v>42067</v>
       </c>
-      <c r="B64" s="4">
+      <c r="C64" s="4">
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B65" s="3">
         <v>42068</v>
       </c>
-      <c r="B65" s="4">
+      <c r="C65" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B66" s="3">
         <v>42069</v>
       </c>
-      <c r="B66" s="4">
+      <c r="C66" s="4">
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f t="shared" ref="A67:A130" si="1">MONTH(B67)</f>
+        <v>3</v>
+      </c>
+      <c r="B67" s="3">
         <v>42070</v>
       </c>
-      <c r="B67" s="4">
+      <c r="C67" s="4">
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B68" s="3">
         <v>42071</v>
       </c>
-      <c r="B68" s="4">
+      <c r="C68" s="4">
         <v>55</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B69" s="3">
         <v>42072</v>
       </c>
-      <c r="B69" s="4">
+      <c r="C69" s="4">
         <v>82</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B70" s="3">
         <v>42073</v>
       </c>
-      <c r="B70" s="4">
+      <c r="C70" s="4">
         <v>126</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B71" s="3">
         <v>42074</v>
       </c>
-      <c r="B71" s="4">
+      <c r="C71" s="4">
         <v>39</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B72" s="3">
         <v>42075</v>
       </c>
-      <c r="B72" s="4">
+      <c r="C72" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B73" s="3">
         <v>42076</v>
       </c>
-      <c r="B73" s="4">
+      <c r="C73" s="4">
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B74" s="3">
         <v>42077</v>
       </c>
-      <c r="B74" s="4">
+      <c r="C74" s="4">
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B75" s="3">
         <v>42078</v>
       </c>
-      <c r="B75" s="4">
+      <c r="C75" s="4">
         <v>67</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B76" s="3">
         <v>42079</v>
       </c>
-      <c r="B76" s="4">
+      <c r="C76" s="4">
         <v>123</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B77" s="3">
         <v>42080</v>
       </c>
-      <c r="B77" s="4">
+      <c r="C77" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B78" s="3">
         <v>42081</v>
       </c>
-      <c r="B78" s="4">
+      <c r="C78" s="4">
         <v>154</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B79" s="3">
         <v>42082</v>
       </c>
-      <c r="B79" s="4">
+      <c r="C79" s="4">
         <v>113</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B80" s="3">
         <v>42083</v>
       </c>
-      <c r="B80" s="4">
+      <c r="C80" s="4">
         <v>47</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B81" s="3">
         <v>42084</v>
       </c>
-      <c r="B81" s="4">
+      <c r="C81" s="4">
         <v>119</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B82" s="3">
         <v>42085</v>
       </c>
-      <c r="B82" s="4">
+      <c r="C82" s="4">
         <v>51</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B83" s="3">
         <v>42086</v>
       </c>
-      <c r="B83" s="4">
+      <c r="C83" s="4">
         <v>88</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B84" s="3">
         <v>42087</v>
       </c>
-      <c r="B84" s="4">
+      <c r="C84" s="4">
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B85" s="3">
         <v>42088</v>
       </c>
-      <c r="B85" s="4">
+      <c r="C85" s="4">
         <v>104</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B86" s="3">
         <v>42089</v>
       </c>
-      <c r="B86" s="4">
+      <c r="C86" s="4">
         <v>36</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B87" s="3">
         <v>42090</v>
       </c>
-      <c r="B87" s="4">
+      <c r="C87" s="4">
         <v>115</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B88" s="3">
         <v>42091</v>
       </c>
-      <c r="B88" s="4">
+      <c r="C88" s="4">
         <v>160</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B89" s="3">
         <v>42092</v>
       </c>
-      <c r="B89" s="4">
+      <c r="C89" s="4">
         <v>29</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B90" s="3">
         <v>42093</v>
       </c>
-      <c r="B90" s="4">
+      <c r="C90" s="4">
         <v>110</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B91" s="3">
         <v>42094</v>
       </c>
-      <c r="B91" s="4">
+      <c r="C91" s="4">
         <v>118</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B92" s="3">
         <v>42095</v>
       </c>
-      <c r="B92" s="4">
+      <c r="C92" s="4">
         <v>69</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B93" s="3">
         <v>42096</v>
       </c>
-      <c r="B93" s="4">
+      <c r="C93" s="4">
         <v>173</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B94" s="3">
         <v>42097</v>
       </c>
-      <c r="B94" s="4">
+      <c r="C94" s="4">
         <v>168</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B95" s="3">
         <v>42098</v>
       </c>
-      <c r="B95" s="4">
+      <c r="C95" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B96" s="3">
         <v>42099</v>
       </c>
-      <c r="B96" s="4">
+      <c r="C96" s="4">
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B97" s="3">
         <v>42100</v>
       </c>
-      <c r="B97" s="4">
+      <c r="C97" s="4">
         <v>103</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B98" s="3">
         <v>42101</v>
       </c>
-      <c r="B98" s="4">
+      <c r="C98" s="4">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B99" s="3">
         <v>42102</v>
       </c>
-      <c r="B99" s="4">
+      <c r="C99" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B100" s="3">
         <v>42103</v>
       </c>
-      <c r="B100" s="4">
+      <c r="C100" s="4">
         <v>124</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B101" s="3">
         <v>42104</v>
       </c>
-      <c r="B101" s="4">
+      <c r="C101" s="4">
         <v>155</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B102" s="3">
         <v>42105</v>
       </c>
-      <c r="B102" s="4">
+      <c r="C102" s="4">
         <v>136</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B103" s="3">
         <v>42106</v>
       </c>
-      <c r="B103" s="4">
+      <c r="C103" s="4">
         <v>147</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B104" s="3">
         <v>42107</v>
       </c>
-      <c r="B104" s="4">
+      <c r="C104" s="4">
         <v>71</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B105" s="3">
         <v>42108</v>
       </c>
-      <c r="B105" s="4">
+      <c r="C105" s="4">
         <v>159</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B106" s="3">
         <v>42109</v>
       </c>
-      <c r="B106" s="4">
+      <c r="C106" s="4">
         <v>39</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B107" s="3">
         <v>42110</v>
       </c>
-      <c r="B107" s="4">
+      <c r="C107" s="4">
         <v>32</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B108" s="3">
         <v>42111</v>
       </c>
-      <c r="B108" s="4">
+      <c r="C108" s="4">
         <v>88</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B109" s="3">
         <v>42112</v>
       </c>
-      <c r="B109" s="4">
+      <c r="C109" s="4">
         <v>37</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B110" s="3">
         <v>42113</v>
       </c>
-      <c r="B110" s="4">
+      <c r="C110" s="4">
         <v>130</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B111" s="3">
         <v>42114</v>
       </c>
-      <c r="B111" s="4">
+      <c r="C111" s="4">
         <v>63</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B112" s="3">
         <v>42115</v>
       </c>
-      <c r="B112" s="4">
+      <c r="C112" s="4">
         <v>179</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B113" s="3">
         <v>42116</v>
       </c>
-      <c r="B113" s="4">
+      <c r="C113" s="4">
         <v>185</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B114" s="3">
         <v>42117</v>
       </c>
-      <c r="B114" s="4">
+      <c r="C114" s="4">
         <v>59</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B115" s="3">
         <v>42118</v>
       </c>
-      <c r="B115" s="4">
+      <c r="C115" s="4">
         <v>162</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B116" s="3">
         <v>42119</v>
       </c>
-      <c r="B116" s="4">
+      <c r="C116" s="4">
         <v>133</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B117" s="3">
         <v>42120</v>
       </c>
-      <c r="B117" s="4">
+      <c r="C117" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B118" s="3">
         <v>42121</v>
       </c>
-      <c r="B118" s="4">
+      <c r="C118" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B119" s="3">
         <v>42122</v>
       </c>
-      <c r="B119" s="4">
+      <c r="C119" s="4">
         <v>97</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B120" s="3">
         <v>42123</v>
       </c>
-      <c r="B120" s="4">
+      <c r="C120" s="4">
         <v>68</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B121" s="3">
         <v>42124</v>
       </c>
-      <c r="B121" s="4">
+      <c r="C121" s="4">
         <v>59</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B122" s="3">
         <v>42125</v>
       </c>
-      <c r="B122" s="4">
+      <c r="C122" s="4">
         <v>177</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B123" s="3">
         <v>42126</v>
       </c>
-      <c r="B123" s="4">
+      <c r="C123" s="4">
         <v>35</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B124" s="3">
         <v>42127</v>
       </c>
-      <c r="B124" s="4">
+      <c r="C124" s="4">
         <v>61</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B125" s="3">
         <v>42128</v>
       </c>
-      <c r="B125" s="4">
+      <c r="C125" s="4">
         <v>134</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B126" s="3">
         <v>42129</v>
       </c>
-      <c r="B126" s="4">
+      <c r="C126" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B127" s="3">
         <v>42130</v>
       </c>
-      <c r="B127" s="4">
+      <c r="C127" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B128" s="3">
         <v>42131</v>
       </c>
-      <c r="B128" s="4">
+      <c r="C128" s="4">
         <v>172</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B129" s="3">
         <v>42132</v>
       </c>
-      <c r="B129" s="4">
+      <c r="C129" s="4">
         <v>23</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B130" s="3">
         <v>42133</v>
       </c>
-      <c r="B130" s="4">
+      <c r="C130" s="4">
         <v>156</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <f t="shared" ref="A131:A137" si="2">MONTH(B131)</f>
+        <v>5</v>
+      </c>
+      <c r="B131" s="3">
         <v>42134</v>
       </c>
-      <c r="B131" s="4">
+      <c r="C131" s="4">
         <v>85</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B132" s="3">
         <v>42135</v>
       </c>
-      <c r="B132" s="4">
+      <c r="C132" s="4">
         <v>174</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B133" s="3">
         <v>42136</v>
       </c>
-      <c r="B133" s="4">
+      <c r="C133" s="4">
         <v>166</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B134" s="3">
         <v>42137</v>
       </c>
-      <c r="B134" s="4">
+      <c r="C134" s="4">
         <v>83</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B135" s="3">
         <v>42138</v>
       </c>
-      <c r="B135" s="4">
+      <c r="C135" s="4">
         <v>78</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B136" s="3">
         <v>42139</v>
       </c>
-      <c r="B136" s="4">
+      <c r="C136" s="4">
         <v>117</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B137" s="3">
         <v>42140</v>
       </c>
-      <c r="B137" s="4">
+      <c r="C137" s="4">
         <v>32</v>
       </c>
     </row>
